--- a/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="用户测试用例" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
   <si>
     <t>用例编号</t>
   </si>
@@ -104,11 +104,6 @@
 2.有些影视资源具有图片</t>
   </si>
   <si>
-    <t>1.【BUG】删除库后，新建同名库，统计信息不正确
-2.【BUG】且演员未删除
-3.【BUG】演员头像未复制过去</t>
-  </si>
-  <si>
     <t>启动时扫描</t>
   </si>
   <si>
@@ -123,11 +118,7 @@
 2.重启后会扫描库</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>1.【功能】添加全部影片-删除信息
-2.【BUG】切换库后会进行扫描</t>
+    <t>1.【功能】添加全部影片-删除信息</t>
   </si>
   <si>
     <t>信息编辑与修改</t>
@@ -185,10 +176,6 @@
 6.按照默认方式添加了标记</t>
   </si>
   <si>
-    <t>1.【BUG】修改标签后未实时更新
-2.【BUG】不修改默认颜色则对应不上</t>
-  </si>
-  <si>
     <t>标记筛选</t>
   </si>
   <si>
@@ -248,6 +235,9 @@
   <si>
     <t>1.可正常设置演员头像
 2.可正常保存演员信息</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
   <si>
     <t>1.【BUG】拖入图片后不显示头像
@@ -1468,8 +1458,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1586,7 +1576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="112" customHeight="1" spans="1:8">
+    <row r="5" ht="112" customHeight="1" spans="1:7">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1607,9 +1597,6 @@
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" ht="87" customHeight="1" spans="1:8">
@@ -1620,22 +1607,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" ht="113" customHeight="1" spans="1:7">
@@ -1646,16 +1633,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1669,22 +1656,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="109" customHeight="1" spans="1:8">
+    <row r="9" ht="109" customHeight="1" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1692,22 +1679,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="101" customHeight="1" spans="1:8">
@@ -1718,22 +1702,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="70" customHeight="1" spans="1:6">
@@ -1744,16 +1728,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="97" customHeight="1" spans="1:8">
@@ -1764,22 +1748,22 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:8">
@@ -1790,22 +1774,22 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" ht="55" customHeight="1" spans="1:8">
@@ -1816,22 +1800,22 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" ht="164" customHeight="1" spans="1:8">
@@ -1842,19 +1826,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" ht="144" customHeight="1" spans="1:8">
@@ -1865,22 +1849,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" ht="48" customHeight="1" spans="1:8">
@@ -1891,22 +1875,22 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" ht="89" customHeight="1" spans="1:8">
@@ -1917,22 +1901,22 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" ht="66" customHeight="1" spans="1:8">
@@ -1943,22 +1927,22 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" ht="52" customHeight="1" spans="1:8">
@@ -1969,22 +1953,22 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1" spans="1:8">
@@ -1995,22 +1979,22 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="22" ht="133" customHeight="1" spans="1:8">
@@ -2021,19 +2005,19 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" ht="84" customHeight="1" spans="1:8">
@@ -2044,22 +2028,22 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="G23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" ht="114" customHeight="1" spans="1:8">
@@ -2070,22 +2054,22 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" ht="78" customHeight="1" spans="1:8">
@@ -2096,22 +2080,22 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" ht="82" customHeight="1" spans="1:8">
@@ -2122,22 +2106,22 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
   <si>
     <t>用例编号</t>
   </si>
@@ -237,9 +237,6 @@
 2.可正常保存演员信息</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>1.【BUG】拖入图片后不显示头像
 2.【BUG】演员同名后图片会共用</t>
   </si>
@@ -269,12 +266,52 @@
     <t>1.所有设置均可正常使用</t>
   </si>
   <si>
-    <t>1.【BUG】勾选删除文件删除信息，如果文件删除失败，则不删除信息
+    <r>
+      <t>1.【BUG】勾选删除文件删除信息，如果文件删除失败，则不删除信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2.【功能】搜索历史不可用
-3.【BUG】库选择热键显示后会把主界面也显示
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.【BUG】库选择热键显示后会把主界面也显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 4.其它选项卡
 5.【优化】启动后扫描改为影视资源目录
-6.【BUG】选择图片文件夹时，窗口被文件夹选择窗口隐藏了</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.【BUG】选择图片文件夹时，窗口被文件夹选择窗口隐藏了</t>
+    </r>
   </si>
   <si>
     <t>图像</t>
@@ -291,11 +328,32 @@
     <t>1.预览图、海报图、截图、演员头像都显示</t>
   </si>
   <si>
-    <t>1.【BUG】无法设置头像
+    <r>
+      <t xml:space="preserve">1.【功能】无法设置头像
 2.【功能】由于当前图片资源文相对于影片，因此该页面不显示头像
-3.修改演员头像默认为 `./.actors`
-4.【BUG】演员头像未正确显示
-5.【BUG】截图后显示的海报图不正确</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.修改演员头像默认为 `./.actors`
+4.【BUG】演员头像未正确显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5.【功能】截图后显示的海报图不正确</t>
+    </r>
   </si>
   <si>
     <t>显示</t>
@@ -304,8 +362,19 @@
     <t>1.显示设置</t>
   </si>
   <si>
-    <t>1.【导航栏】无作用
+    <r>
+      <t>1.【导航栏】无作用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2.【功能】部分功能不可用</t>
+    </r>
   </si>
   <si>
     <t>视频处理</t>
@@ -331,8 +400,29 @@
     <t>1.修改各个选项</t>
   </si>
   <si>
-    <t>1.【BUG】设置透明度为 0  后选择影片不显示
-2.取消所有勾选后不是纯图片（底部边框）</t>
+    <r>
+      <t>1.【BUG】设置透明度为 0  后选择影片不显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.【BUG】取消所有勾选后不是纯图片（底部边框）</t>
+    </r>
   </si>
   <si>
     <t>重命名</t>
@@ -349,6 +439,9 @@
   </si>
   <si>
     <t>1.库设置</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
   <si>
     <t>1.【BUG】扫描后自动建立播放索引无效
@@ -385,9 +478,40 @@
     <t>1.所有右键菜单均可正常使用</t>
   </si>
   <si>
-    <t>1.【优化】访问其所在网址移到高级同步
-2.【BUG】多选下修改信息不可见
-3.【BUG】多选下影片关联</t>
+    <r>
+      <t xml:space="preserve">1.【优化】访问其所在网址移到高级同步
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.【BUG】多选下修改信息不可见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.【BUG】多选下影片关联</t>
+    </r>
   </si>
   <si>
     <t>详情页右键</t>
@@ -397,11 +521,41 @@
 2.对着预览图右键</t>
   </si>
   <si>
-    <t>1.【优化】复制磁力 tooltip
-2.【BUG】右上角同步不可用
+    <r>
+      <t>1.【优化】复制磁力 tooltip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.【BUG】右上角同步不可用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 3.【BUG】删除预览图错误
 4.【BUG】对着播放右键
 5.【优化】弹出确认取消的窗口的文字优化</t>
+    </r>
   </si>
   <si>
     <t>启动页右面</t>
@@ -441,7 +595,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +611,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -921,10 +1082,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,34 +1094,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,98 +1130,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,6 +1245,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1458,8 +1622,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1786,10 +1950,10 @@
         <v>55</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" ht="55" customHeight="1" spans="1:8">
@@ -1800,22 +1964,22 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="164" customHeight="1" spans="1:8">
@@ -1826,19 +1990,22 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" ht="144" customHeight="1" spans="1:8">
@@ -1849,22 +2016,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" ht="48" customHeight="1" spans="1:8">
@@ -1875,22 +2042,22 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" ht="89" customHeight="1" spans="1:8">
@@ -1901,22 +2068,22 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" ht="66" customHeight="1" spans="1:8">
@@ -1927,22 +2094,22 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20" ht="52" customHeight="1" spans="1:8">
@@ -1953,22 +2120,22 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1" spans="1:8">
@@ -1979,19 +2146,19 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>86</v>
@@ -2014,7 +2181,7 @@
         <v>89</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>90</v>
@@ -2040,7 +2207,7 @@
         <v>94</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>95</v>
@@ -2066,9 +2233,9 @@
         <v>94</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>98</v>
       </c>
     </row>

--- a/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
@@ -267,6 +267,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.【BUG】勾选删除文件删除信息，如果文件删除失败，则不删除信息</t>
     </r>
     <r>
@@ -329,6 +336,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.【功能】无法设置头像
 2.【功能】由于当前图片资源文相对于影片，因此该页面不显示头像
 </t>
@@ -363,6 +376,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.【导航栏】无作用</t>
     </r>
     <r>
@@ -401,6 +421,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.【BUG】设置透明度为 0  后选择影片不显示</t>
     </r>
     <r>
@@ -441,20 +468,41 @@
     <t>1.库设置</t>
   </si>
   <si>
+    <r>
+      <t>1.【BUG】扫描后自动建立播放索引无效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.优化按钮间距</t>
+    </r>
+  </si>
+  <si>
+    <t>插件相关</t>
+  </si>
+  <si>
+    <t>插件</t>
+  </si>
+  <si>
+    <t>1.下载插件</t>
+  </si>
+  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>1.【BUG】扫描后自动建立播放索引无效
-2.优化按钮间距</t>
-  </si>
-  <si>
-    <t>插件相关</t>
-  </si>
-  <si>
-    <t>插件</t>
-  </si>
-  <si>
-    <t>1.下载插件</t>
   </si>
   <si>
     <t>1.【BUG】本地插件图片不正确
@@ -479,6 +527,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.【优化】访问其所在网址移到高级同步
 </t>
     </r>
@@ -552,8 +606,46 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-3.【BUG】删除预览图错误
-4.【BUG】对着播放右键
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.【BUG】删除预览图错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.【BUG】对着播放右键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 5.【优化】弹出确认取消的窗口的文字优化</t>
     </r>
   </si>
@@ -580,9 +672,20 @@
     <t>1.可以正确新增识别码</t>
   </si>
   <si>
-    <t>1.【BUG】点击扫描无效
+    <r>
+      <t>1.【BUG】点击扫描无效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2.【优化】视频类型默认为常规
 3.【优化】识别码重复提示</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1622,8 +1725,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2158,10 +2261,10 @@
         <v>64</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" ht="133" customHeight="1" spans="1:8">
@@ -2172,16 +2275,16 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>90</v>
@@ -2233,7 +2336,7 @@
         <v>94</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>98</v>
@@ -2287,7 +2390,7 @@
       <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2298,14 +2401,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B24 B25:B1048576">
-      <formula1>"5,4,3,2,1,0"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D2:D23 D25:D1048576">
+      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G2:G9 G11:G24 G25:G1048576">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D2:D23 D25:D1048576">
-      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B24 B25:B1048576">
+      <formula1>"5,4,3,2,1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>用例编号</t>
   </si>
@@ -469,6 +469,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.【BUG】扫描后自动建立播放索引无效</t>
     </r>
     <r>
@@ -502,15 +509,89 @@
     <t>1.下载插件</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>1.【BUG】本地插件图片不正确
-2.【BUG】无法删除插件
-3.【BUG】垂直滚动条
-4.【BUG】皮肤启用禁用无效
-5.【BUG】是否启用筛选对未下载的也生效了
-6.【BUG】作者未填写网址取消下划线</t>
+    <r>
+      <t>1.【BUG】本地插件图片不正确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.【BUG】无法删除插件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.【BUG】垂直滚动条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.【BUG】皮肤启用禁用无效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.【BUG】是否启用筛选对未下载的也生效了</t>
+    </r>
   </si>
   <si>
     <t>主界面影片右键</t>
@@ -576,6 +657,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.【优化】复制磁力 tooltip</t>
     </r>
     <r>
@@ -673,6 +761,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.【BUG】点击扫描无效</t>
     </r>
     <r>
@@ -1725,8 +1820,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2284,10 +2379,10 @@
         <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="23" ht="84" customHeight="1" spans="1:8">
@@ -2298,22 +2393,22 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" ht="114" customHeight="1" spans="1:8">
@@ -2324,22 +2419,22 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" ht="78" customHeight="1" spans="1:8">
@@ -2350,22 +2445,22 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" ht="82" customHeight="1" spans="1:8">
@@ -2376,22 +2471,22 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2404,11 +2499,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D2:D23 D25:D1048576">
       <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B24 B25:B1048576">
+      <formula1>"5,4,3,2,1,0"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G2:G9 G11:G24 G25:G1048576">
       <formula1>"PASS,FAIL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B24 B25:B1048576">
-      <formula1>"5,4,3,2,1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>用例编号</t>
   </si>
@@ -510,6 +510,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.【BUG】本地插件图片不正确</t>
     </r>
     <r>
@@ -781,6 +788,43 @@
 2.【优化】视频类型默认为常规
 3.【优化】识别码重复提示</t>
     </r>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>1.查看语言</t>
+  </si>
+  <si>
+    <t>1.语言都正确</t>
+  </si>
+  <si>
+    <t>1.【BUG】控件语言未对齐</t>
+  </si>
+  <si>
+    <t>外观、颜色</t>
+  </si>
+  <si>
+    <t>1.查看外观及颜色</t>
+  </si>
+  <si>
+    <t>1.语言都合适</t>
+  </si>
+  <si>
+    <t>1.【BUG】部分颜色不正确
+2.【BUG】Tabitem 大小不正确</t>
+  </si>
+  <si>
+    <t>异常终止</t>
+  </si>
+  <si>
+    <t>1.检查异常终止</t>
+  </si>
+  <si>
+    <t>1.异常终止处理正常</t>
+  </si>
+  <si>
+    <t>1.【BUG】异常终止处理不正常</t>
   </si>
 </sst>
 </file>
@@ -1818,10 +1862,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2489,6 +2533,72 @@
         <v>105</v>
       </c>
     </row>
+    <row r="27" ht="46" customHeight="1" spans="1:8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" ht="39" customHeight="1" spans="1:8">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" ht="49" customHeight="1" spans="2:8">
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -2496,7 +2606,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D2:D23 D25:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D28 D2:D23 D25:D27 D29:D1048576">
       <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B24 B25:B1048576">

--- a/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="121">
   <si>
     <t>用例编号</t>
   </si>
@@ -811,8 +811,29 @@
     <t>1.语言都合适</t>
   </si>
   <si>
-    <t>1.【BUG】部分颜色不正确
-2.【BUG】Tabitem 大小不正确</t>
+    <r>
+      <t>1.【BUG】部分颜色不正确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.【BUG】Tabitem 大小不正确</t>
+    </r>
   </si>
   <si>
     <t>异常终止</t>
@@ -825,6 +846,15 @@
   </si>
   <si>
     <t>1.【BUG】异常终止处理不正常</t>
+  </si>
+  <si>
+    <t>快捷键</t>
+  </si>
+  <si>
+    <t>1.检查所有快捷键</t>
+  </si>
+  <si>
+    <t>1.所有快捷键正常</t>
   </si>
 </sst>
 </file>
@@ -1862,10 +1892,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2552,7 +2582,10 @@
       <c r="F27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2575,11 +2608,17 @@
       <c r="F28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" ht="49" customHeight="1" spans="2:8">
+    <row r="29" ht="49" customHeight="1" spans="1:8">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="B29" s="1">
         <v>5</v>
       </c>
@@ -2595,8 +2634,31 @@
       <c r="F29" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H29" s="3" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="30" ht="48" customHeight="1" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio5.0-测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
   <si>
     <t>用例编号</t>
   </si>
@@ -71,12 +71,80 @@
     <t>1.成功扫描并导入</t>
   </si>
   <si>
-    <t xml:space="preserve">1.【优化】扫描的按钮优化
-2.【优化】新建库的输入框按钮
-3.【优化】左下角 JVEDIO 鼠标样式
+    <r>
+      <t>1.【优化】扫描的按钮优化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.【优化】新建库的输入框按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.【优化】左下角 JVEDIO 鼠标样式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 4.【优化】新增鼠标样式
-5【优化】.隐藏快速访问的加号
 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5【优化】.隐藏快速访问的加号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>扫描带识别码视频</t>
@@ -218,8 +286,19 @@
     <t>2.所有均可正常搜索</t>
   </si>
   <si>
-    <t>1.横向滚动条优化
+    <r>
+      <t>1.横向滚动条优化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2.演员搜索候选词</t>
+    </r>
   </si>
   <si>
     <t>新增演员信息</t>
@@ -267,6 +346,19 @@
   </si>
   <si>
     <r>
+      <t>1.【BUG】勾选删除文件删除信息，如果文件删除失败，则不删除信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
       <rPr>
         <strike/>
         <sz val="11"/>
@@ -274,7 +366,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>1.【BUG】勾选删除文件删除信息，如果文件删除失败，则不删除信息</t>
+      <t>2.【功能】搜索历史不可用</t>
     </r>
     <r>
       <rPr>
@@ -284,7 +376,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-2.【功能】搜索历史不可用
 </t>
     </r>
     <r>
@@ -305,8 +396,46 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-4.其它选项卡
-5.【优化】启动后扫描改为影视资源目录
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.其它选项卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.【优化】启动后扫描改为影视资源目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -336,14 +465,36 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1.【功能】无法设置头像
-2.【功能】由于当前图片资源文相对于影片，因此该页面不显示头像
+      <t>1.【功能】无法设置头像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.【功能】由于当前图片资源文相对于影片，因此该页面不显示头像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -365,7 +516,17 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-5.【功能】截图后显示的海报图不正确</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.【功能】截图后显示的海报图不正确</t>
     </r>
   </si>
   <si>
@@ -376,13 +537,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>1.【导航栏】无作用</t>
     </r>
     <r>
@@ -664,13 +818,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>1.【优化】复制磁力 tooltip</t>
     </r>
     <r>
@@ -741,7 +888,17 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-5.【优化】弹出确认取消的窗口的文字优化</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.【优化】弹出确认取消的窗口的文字优化</t>
     </r>
   </si>
   <si>
@@ -768,51 +925,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>1.【BUG】点击扫描无效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2.【优化】视频类型默认为常规
-3.【优化】识别码重复提示</t>
-    </r>
-  </si>
-  <si>
-    <t>语言</t>
-  </si>
-  <si>
-    <t>1.查看语言</t>
-  </si>
-  <si>
-    <t>1.语言都正确</t>
-  </si>
-  <si>
-    <t>1.【BUG】控件语言未对齐</t>
-  </si>
-  <si>
-    <t>外观、颜色</t>
-  </si>
-  <si>
-    <t>1.查看外观及颜色</t>
-  </si>
-  <si>
-    <t>1.语言都合适</t>
-  </si>
-  <si>
-    <r>
-      <t>1.【BUG】部分颜色不正确</t>
     </r>
     <r>
       <rPr>
@@ -832,7 +945,71 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>2.【BUG】Tabitem 大小不正确</t>
+      <t>2.【优化】视频类型默认为常规</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.【优化】识别码重复提示</t>
+    </r>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>1.查看语言</t>
+  </si>
+  <si>
+    <t>1.语言都正确</t>
+  </si>
+  <si>
+    <t>1.【BUG】控件语言未对齐</t>
+  </si>
+  <si>
+    <t>外观、颜色</t>
+  </si>
+  <si>
+    <t>1.查看外观及颜色</t>
+  </si>
+  <si>
+    <t>1.语言都合适</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.【BUG】部分颜色不正确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.【BUG】Tabitem 大小不正确
+3.【BUG】设置里的 DataGrid（白色）header 不正确</t>
     </r>
   </si>
   <si>
@@ -1894,8 +2071,8 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1982,7 +2159,7 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2008,7 +2185,7 @@
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2198,7 +2375,7 @@
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2250,7 +2427,7 @@
       <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2302,7 +2479,7 @@
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2589,7 +2766,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" ht="39" customHeight="1" spans="1:8">
+    <row r="28" ht="70" customHeight="1" spans="1:8">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2637,11 +2814,11 @@
       <c r="G29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" ht="48" customHeight="1" spans="1:6">
+    <row r="30" ht="48" customHeight="1" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2659,6 +2836,9 @@
       </c>
       <c r="F30" s="1" t="s">
         <v>120</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2668,14 +2848,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D28 D2:D23 D25:D27 D29:D1048576">
-      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B24 B25:B1048576">
       <formula1>"5,4,3,2,1,0"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G2:G9 G11:G24 G25:G1048576">
       <formula1>"PASS,FAIL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D28 D2:D23 D25:D27 D29:D1048576">
+      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
